--- a/medicine/Psychotrope/Abbaye_de_Postel/Abbaye_de_Postel.xlsx
+++ b/medicine/Psychotrope/Abbaye_de_Postel/Abbaye_de_Postel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abbaye de Postel, érigée vers 1135, est une abbaye norbertine située dans la commune belge de Mol, près de la frontière néerlandaise. À l'origine, en 1138, l'abbaye de Floreffe fonde un prieuré, qui n'est élevé en abbaye qu'en 1618. Après la Révolution française, en 1797, les moines norbertins sont chassés de l'abbaye, pour n'y retourner qu'en 1847. Depuis, l'abbaye a été restaurée et abrite toujours une communauté religieuse.
@@ -514,7 +526,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye de Postel est une abbaye qui se trouve dans la commune belge de Mol, près de la frontière néerlandaise.
 </t>
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye de Postel est une abbaye norbertine, c'est-à-dire appartenant à l'ordre des Prémontrés. Le bâtiment est érigé vers 1135 par un gentilhomme, Postrade d'Altena[1]. Les moines de l'abbaye de Floreffe reçoivent Postel en donation en 1138, et y fondent un prieuré. Avant d'obtenir le statut d'abbaye en 1618, Postel devient prévôté, en 1613. Après la Révolution française, en 1797, les moines norbertins sont chassés de l'abbaye, pour n'y retourner qu'en 1847. Depuis, l'abbaye a été restaurée et elle abrite toujours une communauté religieuse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye de Postel est une abbaye norbertine, c'est-à-dire appartenant à l'ordre des Prémontrés. Le bâtiment est érigé vers 1135 par un gentilhomme, Postrade d'Altena. Les moines de l'abbaye de Floreffe reçoivent Postel en donation en 1138, et y fondent un prieuré. Avant d'obtenir le statut d'abbaye en 1618, Postel devient prévôté, en 1613. Après la Révolution française, en 1797, les moines norbertins sont chassés de l'abbaye, pour n'y retourner qu'en 1847. Depuis, l'abbaye a été restaurée et elle abrite toujours une communauté religieuse.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye est encore aujourd'hui, toujours ceinte de murs, et partiellement de douves. On y pénètre par un porche rustique du XVIIIe siècle.
 L'église abbatiale date de la fin du XIIe siècle. Elle a été construite dans une architecture romane typique pour la Rhénanie. Au cours des siècles, l'église a subi plusieurs modifications, de sorte qu'elle porte également quelques caractéristiques gothique et baroque.
@@ -609,7 +627,9 @@
           <t>Autres aspects culturels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'étage, la riche bibliothèque contient 54 incunables, 150 post-incunables datés de 1500 à 1540, 340 éditions plantiniennes, etc. L'abbaye possède également des peintures de valeur, de bons stucs et de nombreuses œuvres d'art dont un candélabre du XIVe siècle en dinanderie.
 </t>
@@ -640,7 +660,9 @@
           <t>Production de l'abbaye</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Traditionnellement, l'abbaye de Postel produit la Postel, bière d'abbaye. Cette bière n'est plus brassée à Postel même, mais à la brasserie De Smedt devenue brasserie Affligem à Opwijk.
 L'abbaye produit également du fromage, le Postel, l'Abbaye de Postel et l'Oude Postel.
